--- a/02_MasterWifoMannheim/99_Backup/Course62.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course62.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A201159C9E0F543FDF8B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B6E73FC-AA2C-4716-86CA-D04BB869CDF2}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>TAX 630 International Business Taxation</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t> Basics of international business taxation,  taxation of inbound investments,  taxation of outbound investments,  transfer pricing,  cross-border reorganizations.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students know the basics of international taxation (national tax law, double taxation conventions, primary and secondary EU law) and the causes of double taxation. Students understand the tax consequences of establishing domestic and foreign permanent establishments as well as domestic and foreign corporations. Students understand the impact of transfer pricing on the companies’ tax burden. Most notably, students are able to evaluate how multinational companies make use of internationally diverging tax burdens.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory Registration</t>
-  </si>
-  <si>
-    <t>Further information on registration: -</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Selbstudium Lecture International Business 6 Taxation Exercise class International Business Taxation</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>70 % written exam (90 min.), 30 % individual assignment and group presentation</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Christoph Spengel</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>TAX 520, TAX 530</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TAX 630 International Business Taxation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> Basics of international business taxation,  taxation of inbound investments,  taxation of outbound investments,  transfer pricing,  cross-border reorganizations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students know the basics of international taxation (national tax law, double taxation conventions, primary and secondary EU law) and the causes of double taxation. Students understand the tax consequences of establishing domestic and foreign permanent establishments as well as domestic and foreign corporations. Students understand the impact of transfer pricing on the companies’ tax burden. Most notably, students are able to evaluate how multinational companies make use of internationally diverging tax burdens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TAX 520, TAX 530</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory Registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further information on registration: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Selbstudium Lecture International Business 6 Taxation Exercise class International Business Taxation</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>70 % written exam (90 min.), 30 % individual assignment and group presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Christoph Spengel</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
